--- a/medicine/Mort/Deuil_national/Deuil_national.xlsx
+++ b/medicine/Mort/Deuil_national/Deuil_national.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un deuil national est une journée ou une période plus longue dont le gouvernement d'un pays décide officiellement qu'elle sera marquée, durant les activités de la population, par le deuil et la mémoire d'un ou plusieurs morts auprès de l'opinion publique de ce pays : des personnes ayant accompli des actes reconnus comme héroïques, les victimes d'un acte de barbarie ou d'une catastrophe naturelle, etc. Un instant de recueillement est convoqué.
 Ces commémorations (drapeaux en berne, minutes de silence, etc.) peuvent être accompagnées d'obsèques nationales, notamment lorsqu'il s'agit du décès de personnes héroïques ou de personnalités ayant exercé un rôle moral, politique ou social important dans le pays.
@@ -513,100 +525,681 @@
           <t>Exemples de deuils nationaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette liste ne mentionne que des deuils nationaux d’au moins une journée.
-Algérie
-2012 : huit jours de deuil national à la suite de la mort d'Ahmed Ben Bella[1].
-2016 : huit jours de deuil national furent décrétés à la suite de la mort de Fidel Castro[2].
-Afrique du Sud
-2013 : une semaine de deuil national fut décrétée à la suite de la mort de Nelson Mandela.
-Argentine
-2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II[3] ;
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Hugo Chávez[4] ;
-2020 : trois jours de deuil national furent décrétés à la suite de la mort de Diego Maradona[5].
-Australie
-2009 : un jour de deuil national fut décrété pour les victimes des feux de brousse du Victoria le 22 février.
-Autriche
-2020 : trois jours en hommage aux victimes de l'attentat du 2 novembre à Vienne[6].
-Belgique
-1935 : une semaine, à l'occasion du décès accidentel de la reine Astrid, épouse du roi Léopold III ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste ne mentionne que des deuils nationaux d’au moins une journée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Algérie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2012 : huit jours de deuil national à la suite de la mort d'Ahmed Ben Bella.
+2016 : huit jours de deuil national furent décrétés à la suite de la mort de Fidel Castro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2013 : une semaine de deuil national fut décrétée à la suite de la mort de Nelson Mandela.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Argentine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
+2013 : trois jours de deuil national furent décrétés à la suite de la mort de Hugo Chávez ;
+2020 : trois jours de deuil national furent décrétés à la suite de la mort de Diego Maradona.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2009 : un jour de deuil national fut décrété pour les victimes des feux de brousse du Victoria le 22 février.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autriche</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2020 : trois jours en hommage aux victimes de l'attentat du 2 novembre à Vienne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1935 : une semaine, à l'occasion du décès accidentel de la reine Astrid, épouse du roi Léopold III ;
 1er août 1993 : mort du roi des Belges Baudouin le 31 juillet, neuf jours de deuil national furent décrétés ;
-14 avril 1995 : assassinat de 10 casques bleus belges, comptant parmi les événements initiaux du génocide des Tutsi au Rwanda en avril 1994[7] ;
-4 août 2004 : explosion de gaz de Ghislenghien[8] ;
-16 mars 2012 : accident du tunnel de Sierre[9],[10] ;
+14 avril 1995 : assassinat de 10 casques bleus belges, comptant parmi les événements initiaux du génocide des Tutsi au Rwanda en avril 1994 ;
+4 août 2004 : explosion de gaz de Ghislenghien ;
+16 mars 2012 : accident du tunnel de Sierre, ;
 2014 : sept jours à la suite de la mort de la reine Fabiola le 5 décembre ;
-2016 : trois jours sont décrétés à la suite des attentats de Bruxelles le 22 mars qui ont fait plus de 30 morts[11] ;
-20 juillet 2021 : inondations tragiques sur une grande partie du territoire, surtout la Wallonie.
-Bénin
-2013 : une semaine de deuil national furent décrétés à la suite de la mort de Nelson Mandela[12].
-2015 : le 14 octobre à la suite de la mort de Mathieu Kérékou, ancien président de la République , une semaine de deuil national est décrétée[13].
-Brésil
-1994 : trois jours à la suite du décès d'Ayrton Senna durant le Grand Prix de Saint-Marin ;
-2005 : sept jours à la suite de la mort de la pape Jean-Paul II[14] ;
+2016 : trois jours sont décrétés à la suite des attentats de Bruxelles le 22 mars qui ont fait plus de 30 morts ;
+20 juillet 2021 : inondations tragiques sur une grande partie du territoire, surtout la Wallonie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bénin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2013 : une semaine de deuil national furent décrétés à la suite de la mort de Nelson Mandela.
+2015 : le 14 octobre à la suite de la mort de Mathieu Kérékou, ancien président de la République , une semaine de deuil national est décrétée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Brésil</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1994 : trois jours à la suite du décès d'Ayrton Senna durant le Grand Prix de Saint-Marin ;
+2005 : sept jours à la suite de la mort de la pape Jean-Paul II ;
 2009 : trois jours en hommage aux victimes de la « disparition » de l'avion du vol Air France 447 ;
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Hugo Chávez[15] ;
-2013 : une semaine de deuil national furent décrétés à la suite de la mort de Nelson Mandela[16]
+2013 : trois jours de deuil national furent décrétés à la suite de la mort de Hugo Chávez ;
+2013 : une semaine de deuil national furent décrétés à la suite de la mort de Nelson Mandela
 2014 : trois jours en hommage aux victime de l'accident de l'avion d'Eduardo Campos ;
 2016 : trois jours en hommage aux victimes de l'accident du vol LaMia 2933 ;
-2022 : un jour de deuil national à la suite du décès du prince Luiz de Orleans e Bragança[17] ;
-2022 : trois jours à la suite du décès de la reine Élisabeth II du Royaume-Uni[18] ;
-2022 : trois jours à la suite de la mort du footballeur Pelé.
-Canada
-2022 : 19 septembre, jour du deuil national le jour des obsèques de la reine Élisabeth II du Canada[18].
-Cameroun
-2016 : le président camerounais Paul Biya décrète une journée de deuil national après l'accident ferroviaire d'Éséka[19] ;
-2020 : le président Paul Biya décrète une journée de deuil national à la suite du massacre de Kumba[20].
-Chili
-2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II[21] ;
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Hugo Chávez[22] ;
-2024 : trois jours de deuil national décrétés à la suite du décès de l'ancien président Piñera.
-Corée du Nord
-1994 à 1997 : trois ans de deuil national furent décrétés à la suite de la mort de Kim Il-sung le 8 juillet 1994 ;
-2004 : trois jours après la mort de président de l'État de Palestine Yasser Arafat[23].
+2022 : un jour de deuil national à la suite du décès du prince Luiz de Orleans e Bragança ;
+2022 : trois jours à la suite du décès de la reine Élisabeth II du Royaume-Uni ;
+2022 : trois jours à la suite de la mort du footballeur Pelé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2022 : 19 septembre, jour du deuil national le jour des obsèques de la reine Élisabeth II du Canada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2016 : le président camerounais Paul Biya décrète une journée de deuil national après l'accident ferroviaire d'Éséka ;
+2020 : le président Paul Biya décrète une journée de deuil national à la suite du massacre de Kumba.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Chili</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
+2013 : trois jours de deuil national furent décrétés à la suite de la mort de Hugo Chávez ;
+2024 : trois jours de deuil national décrétés à la suite du décès de l'ancien président Piñera.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Corée du Nord</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1994 à 1997 : trois ans de deuil national furent décrétés à la suite de la mort de Kim Il-sung le 8 juillet 1994 ;
+2004 : trois jours après la mort de président de l'État de Palestine Yasser Arafat.
 2011 : douze jours de deuil national furent décrétés à la suite de la mort de Kim Jong-il.
-2016 : trois jours de deuil national furent décrétés à la suite de la mort de Fidel Castro[24] ;
-Côte d'Ivoire
-2005 : un jour de deuil national est décrété le jour des funérailles de pape Jean-Paul II[25] ;
-2020 : le 10 juillet, Alassane Ouattara décrète huit jours de deuil national après le décès du Premier ministre Amadou Gon Coulibaly le 8 juillet[26] ;
-2023 : le 2 août, Alassane Ouattara décrète dix jours de deuil national après le décès de l'ancien Président de la République Henri Konan Bédié (1993-1999) le 1er août.
-Cuba
-1967 : le 15 octobre, Fidel Castro décrète trois jours de deuil national après la mort de Che Guevara ;
-2004 : trois jours après la mort de président de l'État de Palestine Yasser Arafat[27] ;
-2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II[28] ;
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Hugo Chávez[29] ;
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela[30] ;
+2016 : trois jours de deuil national furent décrétés à la suite de la mort de Fidel Castro ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2005 : un jour de deuil national est décrété le jour des funérailles de pape Jean-Paul II ;
+2020 : le 10 juillet, Alassane Ouattara décrète huit jours de deuil national après le décès du Premier ministre Amadou Gon Coulibaly le 8 juillet ;
+2023 : le 2 août, Alassane Ouattara décrète dix jours de deuil national après le décès de l'ancien Président de la République Henri Konan Bédié (1993-1999) le 1er août.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1967 : le 15 octobre, Fidel Castro décrète trois jours de deuil national après la mort de Che Guevara ;
+2004 : trois jours après la mort de président de l'État de Palestine Yasser Arafat ;
+2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
+2013 : trois jours de deuil national furent décrétés à la suite de la mort de Hugo Chávez ;
+2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela ;
 2016 : 9 jours (du 26 novembre au 4 décembre) à la suite de la mort de Fidel Castro ;
-2021 : 18 heures à la suite du décès de l'ancien président algérien Abdelaziz Bouteflika[31] ;
-2022 : 42 heures à la suite de l'explosion de gaz à l'hôtel Saratoga de la Havane, survenue le 6 mai 2022[32] ;
-2022 : 18 heures à la suite de l'assassinat de l'ancien premier ministre japonais Shinzō Abe[33] ;
-2022 : 18 heures à la suite de l'annonce du décès de la reine Élisabeth II du Royaume-Uni[34] ;
-2023 : 18 heures à la suite du décès du pape émérite Benoît XVI[35] ;
-2023 : 18 heures à la suite du décès de l'émir du Koweït Nawaf al-Ahmad al-Jaber al-Sabah[36] ;
-2024 : 18 heures à la suite du décès du président namibien Hage Geingob[37].
-Égypte
-1970 : le 29 septembre quarante jours de deuil national furent décrétés à la suite de la mort du Président de la république arabe d'Égypte Gamal Abdel Nasser[38] ;
-1981 : le 7 octobre, quarante jours de deuil ont été annoncés pour le meurtre du président Égyptien Anouar el-Sadate[39] ;
-2004 : trois jours après la mort du président de l'État de Palestine Yasser Arafat[40] ;
-2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II[41] ;
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela[42] ;
+2021 : 18 heures à la suite du décès de l'ancien président algérien Abdelaziz Bouteflika ;
+2022 : 42 heures à la suite de l'explosion de gaz à l'hôtel Saratoga de la Havane, survenue le 6 mai 2022 ;
+2022 : 18 heures à la suite de l'assassinat de l'ancien premier ministre japonais Shinzō Abe ;
+2022 : 18 heures à la suite de l'annonce du décès de la reine Élisabeth II du Royaume-Uni ;
+2023 : 18 heures à la suite du décès du pape émérite Benoît XVI ;
+2023 : 18 heures à la suite du décès de l'émir du Koweït Nawaf al-Ahmad al-Jaber al-Sabah ;
+2024 : 18 heures à la suite du décès du président namibien Hage Geingob.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Égypte</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1970 : le 29 septembre quarante jours de deuil national furent décrétés à la suite de la mort du Président de la république arabe d'Égypte Gamal Abdel Nasser ;
+1981 : le 7 octobre, quarante jours de deuil ont été annoncés pour le meurtre du président Égyptien Anouar el-Sadate ;
+2004 : trois jours après la mort du président de l'État de Palestine Yasser Arafat ;
+2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
+2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela ;
 2016 : trois jours après l'attentat de l'église Saint-Pierre-et-Saint-Paul du Caire ;
-2020 : trois jours de deuil national furent décrétés à la suite de la mort de Hosni Moubarak[43].
-Espagne
-1975 : trente jours à la suite de la mort de Francisco Franco le 20 novembre ;
-2005 : un jour de deuil national ont été annoncés après la mort du pape Jean-Paul II[44] ;
+2020 : trois jours de deuil national furent décrétés à la suite de la mort de Hosni Moubarak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1975 : trente jours à la suite de la mort de Francisco Franco le 20 novembre ;
+2005 : un jour de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
 2013 : trois jours en hommage aux 80 victimes de l'accident ferroviaire de Saint-Jacques-de-Compostelle le 24 juillet ;
-2015 : trois jours à la suite de la mort de 150 personnes lors du crash de la Germanwings le 24 mars[45] ;
-2017 : trois jours en hommage aux victimes des attentats en Catalogne du 17 août[46],[47] ;
-2020 : dix jours à partir du 26 mai en hommage au plus de 25 000 victimes de la pandémie de Covid-19 dans le pays[48].
-France
-En France le deuil national marque l'hommage de la Nation aux victimes d'un événement marquant[49] (catastrophe naturelle, attentat) ou la mort d'un président de la République (président en exercice ou ancien président).
+2015 : trois jours à la suite de la mort de 150 personnes lors du crash de la Germanwings le 24 mars ;
+2017 : trois jours en hommage aux victimes des attentats en Catalogne du 17 août, ;
+2020 : dix jours à partir du 26 mai en hommage au plus de 25 000 victimes de la pandémie de Covid-19 dans le pays.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>En France le deuil national marque l'hommage de la Nation aux victimes d'un événement marquant (catastrophe naturelle, attentat) ou la mort d'un président de la République (président en exercice ou ancien président).
 Le deuil national est déclaré par un décret signé par le président de la République (ou le président du Sénat qui assure l'interim si le deuil concerne la mort du président en exercice) et le Premier ministre.
-Il n'existe pas de codification des actions à mener mais consiste au moins en la mise en berne des drapeaux sur les édifices publics[50] et est souvent accompagné de minutes de silence[49]. Jusqu'alors limité à une seule journée, le fait de décréter plusieurs jours de deuil national est une nouveauté introduite par le président François Hollande en 2015. Si la durée s'allonge, à l'inverse, l'intensité de la rupture des activités quotidiennes s'amenuise : aucune fermeture ou annulation n'a accompagné les deuils depuis 2015.
+Il n'existe pas de codification des actions à mener mais consiste au moins en la mise en berne des drapeaux sur les édifices publics et est souvent accompagné de minutes de silence. Jusqu'alors limité à une seule journée, le fait de décréter plusieurs jours de deuil national est une nouveauté introduite par le président François Hollande en 2015. Si la durée s'allonge, à l'inverse, l'intensité de la rupture des activités quotidiennes s'amenuise : aucune fermeture ou annulation n'a accompagné les deuils depuis 2015.
 1930 : dimanche 9 mars, après les inondations dans le Midi de la France[a] ;
-1942 : samedi 7 mars 1942, jour des obsèques des victimes du bombardement allié de nuit le 3 mars sur l'ouest de Paris et sa banlieue qui a occasionné 623 victimes civiles[51].
-1943 : mercredi 7 avril 1943, jour des obsèques des victimes du bombardement allié de jour le 4 avril sur l'ouest de Paris et sa banlieue qui a occasionné 380 victimes civiles. Grande cérémonie de propagande de l’État Français place de la Concorde [52].
-1949 : mercredi 24 août, après le grand incendie de la forêt landaise qui a causé la mort de 82 personnes et brûlé 52 000 hectares[53].
+1942 : samedi 7 mars 1942, jour des obsèques des victimes du bombardement allié de nuit le 3 mars sur l'ouest de Paris et sa banlieue qui a occasionné 623 victimes civiles.
+1943 : mercredi 7 avril 1943, jour des obsèques des victimes du bombardement allié de jour le 4 avril sur l'ouest de Paris et sa banlieue qui a occasionné 380 victimes civiles. Grande cérémonie de propagande de l’État Français place de la Concorde .
+1949 : mercredi 24 août, après le grand incendie de la forêt landaise qui a causé la mort de 82 personnes et brûlé 52 000 hectares.
 1970 : jeudi 12 novembre, après la mort de l'ancien président de la République, Charles de Gaulle, le 9 novembre[b] ;
 1974 : samedi 6 avril, après la mort de Georges Pompidou, président de la République en exercice, le 2 avril[c] ;
 1996 : jeudi 11 janvier, après la mort de l'ancien président de la République, François Mitterrand, le 8 janvier[d],[e] ;
@@ -615,98 +1208,778 @@
 2015 : dimanche 15, lundi 16 et mardi 17 novembre, après les attentats du 13 novembre[k],[l] ;
 2016 : samedi 16, dimanche 17 et lundi 18 juillet, après l'attentat du 14 juillet à Nice[m],[n],[o] ;
 2019 : lundi 30 septembre, après la mort de l'ancien président de la République, Jacques Chirac, le 26 septembre[p],[q] ;
-2020 : mercredi 9 décembre, après la mort de l'ancien président de la République, Valéry Giscard d'Estaing, le 2 décembre[r],[s].
-Guatemala
-2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II[21] ;
-2021 : trois jours à la suite de la mort de 55 migrants dans un accident de camion au Chiapas le 9 décembre[54].
-Guinée
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela[55].
-2023 : trois jours à la suite de l’Explosion du dépôt de carburant de Kaloum le 20 décembre[56].
-Iran
-1989 : Quarante jours de deuil national ont été annoncés après la mort du guide spirituel suprême iranien Ayatollah Rouhollah Khomeini[57] ;
-2013 : un jour de deuil national furent décrétés à la suite de la mort de Hugo Chávez[58] ;
-2020 : trois jours à la suite de l'assassinat du général Soleimani par les États-Unis le 3 janvier[59].
-Israël
-2021 : Dimanche 2 mai, à la suite de la Bousculade du mont Méron, qui fait 45 victimes.
-Italie
-1958 : Trois jours de deuil national ont été annoncés après la mort du pape Pie XII[60] ;
-1963 : Trois jours de deuil national ont été annoncés après la mort du pape Jean XXIII[61] ;
+2020 : mercredi 9 décembre, après la mort de l'ancien président de la République, Valéry Giscard d'Estaing, le 2 décembre[r],[s].</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
+2021 : trois jours à la suite de la mort de 55 migrants dans un accident de camion au Chiapas le 9 décembre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Guinée</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela.
+2023 : trois jours à la suite de l’Explosion du dépôt de carburant de Kaloum le 20 décembre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1989 : Quarante jours de deuil national ont été annoncés après la mort du guide spirituel suprême iranien Ayatollah Rouhollah Khomeini ;
+2013 : un jour de deuil national furent décrétés à la suite de la mort de Hugo Chávez ;
+2020 : trois jours à la suite de l'assassinat du général Soleimani par les États-Unis le 3 janvier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Israël</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2021 : Dimanche 2 mai, à la suite de la Bousculade du mont Méron, qui fait 45 victimes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1958 : Trois jours de deuil national ont été annoncés après la mort du pape Pie XII ;
+1963 : Trois jours de deuil national ont été annoncés après la mort du pape Jean XXIII ;
 1978 : Trois jours de deuil national ont été annoncés après la mort du pape Paul VI ;
-2005 : Trois jours de deuil national ont été annoncés, plus le jour des funérailles du pape Jean-Paul II[62] ;
-2016 : un jour de deuil national est décrété le 27 août à la suite du séisme du 24 août en Italie centrale (298 morts)[63] ;
-2023 : un jour de deuil national est décrété le jour des funérailles de Silvio Berlusconi, ancien président du Conseil des ministres[64] ;
-2023 : un jour de deuil national est décrété le jour des funérailles de Giorgio Napolitano, ancien président de la République[65].
-Kazakhstan
-2019 : le samedi 28 décembre, à la suite de l'accident du vol 2100 Bek Air[66].
-Liban
-2004 : trois jours après la mort du président de l'État de Palestine Yasser Arafat[40] ;
+2005 : Trois jours de deuil national ont été annoncés, plus le jour des funérailles du pape Jean-Paul II ;
+2016 : un jour de deuil national est décrété le 27 août à la suite du séisme du 24 août en Italie centrale (298 morts) ;
+2023 : un jour de deuil national est décrété le jour des funérailles de Silvio Berlusconi, ancien président du Conseil des ministres ;
+2023 : un jour de deuil national est décrété le jour des funérailles de Giorgio Napolitano, ancien président de la République.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2019 : le samedi 28 décembre, à la suite de l'accident du vol 2100 Bek Air.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Liban</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2004 : trois jours après la mort du président de l'État de Palestine Yasser Arafat ;
 2005 : un deuil national fut décrété à la suite de l'assassinat du Premier ministre, Rafiq Hariri ;
-2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II[67] ;
-2013 : un jour de deuil national furent décrétés à la suite de la mort de Nelson Mandela[68] ;
-2019 : lundi 30 septembre, après la mort de l'ancien président de la République française, Jacques Chirac, le 26 septembre[69] ;
+2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
+2013 : un jour de deuil national furent décrétés à la suite de la mort de Nelson Mandela ;
+2019 : lundi 30 septembre, après la mort de l'ancien président de la République française, Jacques Chirac, le 26 septembre ;
 2020 : une journée en hommage aux victimes des explosions au port de Beyrouth, le 4 août ;
-2020 : trois jours après la mort de l'émir du Koweït, Sabah al-Ahmad al-Jaber al-Sabah, le 29 septembre[70] ;
-2022 : trois jours à la suite de la mort de la reine Élisabeth II du Royaume-Uni[71].
-Mali
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela[72].
-2019 : les jeudi 13, vendredi 14 et samedi 15 juin à la suite du massacre de Sobane Da[73].
-Maroc
-juillet 1999 : quarante jours de deuil national furent décrétés à la suite du décès du roi Hassan II ;
-2004 : trois jours après la mort de président de l'État de Palestine Yasser Arafat[40] ;
+2020 : trois jours après la mort de l'émir du Koweït, Sabah al-Ahmad al-Jaber al-Sabah, le 29 septembre ;
+2022 : trois jours à la suite de la mort de la reine Élisabeth II du Royaume-Uni.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela.
+2019 : les jeudi 13, vendredi 14 et samedi 15 juin à la suite du massacre de Sobane Da.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>juillet 1999 : quarante jours de deuil national furent décrétés à la suite du décès du roi Hassan II ;
+2004 : trois jours après la mort de président de l'État de Palestine Yasser Arafat ;
 2011 : trois jours décrétés pour les victimes du crash d'un avion militaire le 26 juillet dans le sud du pays ;
-2022 : trois jours décrétés après la mort de Khalifa ben Zayed Al Nahyane, émir d'Abou Dabi et président des Émirats arabes unis[74] ;
-2023 : trois jours décrétés pour les victimes du séisme survenu le 8 septembre 2023 vers 23 h 12 au sud de Marrakech.
-Mexique
-2005 : un jour de deuil national est décrété le jour des funérailles de pape Jean-Paul II[75] ;
+2022 : trois jours décrétés après la mort de Khalifa ben Zayed Al Nahyane, émir d'Abou Dabi et président des Émirats arabes unis ;
+2023 : trois jours décrétés pour les victimes du séisme survenu le 8 septembre 2023 vers 23 h 12 au sud de Marrakech.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mexique</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2005 : un jour de deuil national est décrété le jour des funérailles de pape Jean-Paul II ;
 2011 : trois jours de deuil national furent décrétés pour les personnes mortes lors de l'attentat terroriste de Monterrey du 25 août.
-2013 : les 2, 3 et 4 février en mémoire des victimes de l'explosion de la Torre Ejecutiva Pemex, le 31 janvier à Mexico[76],[77].
-2017 : trois jours en l'honneur des victimes du séisme dans l'État de Puebla survenu le 19 septembre[78].
-2020 : trente jours, du 13 août au 11 septembre, pour les victimes de la pandémie de Covid-19 dans le pays[79].
-2020 : le 31 octobre, le 1er et le 2 novembre en hommage aux victimes de la pandémie de Covid-19[80],[81].
-2021 : les 4, 5 et 6 mai à la suite de l'accident de métro du 3 mai 2021 à Mexico[82].
-2022 : le 26 septembre pour les huit ans des enlèvements d'Iguala en 2014[83].
-Pologne
-2005 : six jours de deuil national ont été annoncés après la mort du pape Jean-Paul II[84] ;
-2010 : une semaine de deuil national fut décrétée à la suite du décès du président Lech Kaczyński dans l'accident de son avion près de Smolensk (Russie)[85],[α].
-Portugal
-1999 : trois jours de deuil national furent décrétés à la suite du décès de la chanteuse Amália Rodrigues ;
-2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II[87] ;
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela[88] ;
+2013 : les 2, 3 et 4 février en mémoire des victimes de l'explosion de la Torre Ejecutiva Pemex, le 31 janvier à Mexico,.
+2017 : trois jours en l'honneur des victimes du séisme dans l'État de Puebla survenu le 19 septembre.
+2020 : trente jours, du 13 août au 11 septembre, pour les victimes de la pandémie de Covid-19 dans le pays.
+2020 : le 31 octobre, le 1er et le 2 novembre en hommage aux victimes de la pandémie de Covid-19,.
+2021 : les 4, 5 et 6 mai à la suite de l'accident de métro du 3 mai 2021 à Mexico.
+2022 : le 26 septembre pour les huit ans des enlèvements d'Iguala en 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Pologne</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2005 : six jours de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
+2010 : une semaine de deuil national fut décrétée à la suite du décès du président Lech Kaczyński dans l'accident de son avion près de Smolensk (Russie),[α].</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1999 : trois jours de deuil national furent décrétés à la suite du décès de la chanteuse Amália Rodrigues ;
+2005 : trois jours de deuil national ont été annoncés après la mort du pape Jean-Paul II ;
+2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela ;
 2014 : trois jours de deuil national furent décrétés pour la mort du footballeur Eusebio ;
 2017 : trois jours de deuil national furent décrétés à la suite du décès de l'ancien président (1986-1996) Mário Soares ;
-2020 : le 2 décembre à la suite de la mort du philosophe Eduardo Lourenço la veille[89].
-République tchèque
-2005 : un jour de deuil national est décrété le jour des funérailles de pape Jean-Paul II[90] ;
-2011 : trois jours de deuil national furent décrétés à la suite de la mort de Václav Havel.
-Roumanie
-2005 : un jour de deuil national est décrété le jour des funérailles de pape Jean-Paul II[91] ;
+2020 : le 2 décembre à la suite de la mort du philosophe Eduardo Lourenço la veille.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>République tchèque</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2005 : un jour de deuil national est décrété le jour des funérailles de pape Jean-Paul II ;
+2011 : trois jours de deuil national furent décrétés à la suite de la mort de Václav Havel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Roumanie</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2005 : un jour de deuil national est décrété le jour des funérailles de pape Jean-Paul II ;
 2015 : un deuil national de trois jours est décrété à compter du 31 octobre, à la suite d'un incendie dans une boîte de nuit à Bucarest, qui a causé la mort d'au moins 54 personnes ;
-2017 : un deuil national de trois jours est décrété à partir du 5 décembre, à la suite de la mort de l'ancien roi Michel Ier de Roumanie.
-Royaume-Uni
-2002 : huit jours de deuil national furent décrétés à la suite du décès de la reine mère Elizabeth, morte le 30 mars à l’âge de 101 ans[β] ;
+2017 : un deuil national de trois jours est décrété à partir du 5 décembre, à la suite de la mort de l'ancien roi Michel Ier de Roumanie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2002 : huit jours de deuil national furent décrétés à la suite du décès de la reine mère Elizabeth, morte le 30 mars à l’âge de 101 ans[β] ;
 2021 : huit jours de deuil national furent décrétés à la suite du décès du prince Philip, duc d'Édimbourg, mort le 9 avril à l’âge de 99 ans[β] ;
-2022 : dix jours de deuil national furent décrétés à la suite du décès de la reine Élisabeth II, décédée le 8 septembre à l’âge de 96 ans[β].
-Russie
-2010 : le 12 avril à la suite de l'accident de l'avion présidentiel polonais à Smolensk qui coûte notamment la vie au président polonais Lech Kaczyński ;
+2022 : dix jours de deuil national furent décrétés à la suite du décès de la reine Élisabeth II, décédée le 8 septembre à l’âge de 96 ans[β].</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2010 : le 12 avril à la suite de l'accident de l'avion présidentiel polonais à Smolensk qui coûte notamment la vie au président polonais Lech Kaczyński ;
 2015 : le 1er novembre à la suite de l'attentat du vol 9268 de la compagnie Metrojet survenu la veille et qui a provoqué la mort de 224 personnes, majoritairement de nationalité russe ;
-2016 : le 26 décembre à la suite de l'accident aérien du Tupolev Tu-154 de la force aérienne russe.
-Tanzanie
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela[92].
-2018 : quatre jours de deuil à la suite du naufrage du MV Nyerere le 20 septembre (218 morts)[93].
-Thaïlande
-2016 : un an de deuil national à la suite du décès du roi Bhumibol Adulyadej, mort le 13 octobre à l’âge de 88 ans.
-Tunisie
-2004 : trois jours après la mort de président de l'État de Palestine Yasser Arafat[40] ;
+2016 : le 26 décembre à la suite de l'accident aérien du Tupolev Tu-154 de la force aérienne russe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tanzanie</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela.
+2018 : quatre jours de deuil à la suite du naufrage du MV Nyerere le 20 septembre (218 morts).</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Thaïlande</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2016 : un an de deuil national à la suite du décès du roi Bhumibol Adulyadej, mort le 13 octobre à l’âge de 88 ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2004 : trois jours après la mort de président de l'État de Palestine Yasser Arafat ;
 2011 : trois jours de deuil national furent décrétés pour les personnes mortes lors de la révolution tunisienne ;
 2013 : trois jours de deuil national furent décrétés à la suite de l'assassinat de Chokri Belaïd (figure nationaliste de gauche) le 6 février ;
 2013 : un jour de deuil national fut décrété à la suite de l'assassinat de Mohamed Brahmi (figure nationaliste de gauche) le 25 juillet ;
-2013 : un jour de deuil national furent décrétés à la suite de la mort de Nelson Mandela[94] ;
-2019 : sept jours de deuil national furent décrétés à la suite de la mort de Béji Caïd Essebsi le 25 juillet.
-Venezuela
-2005 : cinq jours à la suite de la mort de la pape Jean-Paul II[21] ;
+2013 : un jour de deuil national furent décrétés à la suite de la mort de Nelson Mandela ;
+2019 : sept jours de deuil national furent décrétés à la suite de la mort de Béji Caïd Essebsi le 25 juillet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Deuil_national</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deuil_national</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Exemples de deuils nationaux</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2005 : cinq jours à la suite de la mort de la pape Jean-Paul II ;
 2013 : à la mort de Hugo Chávez, le mardi 5 février 2013, une semaine de deuil national fut décrétée.
-2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela[95] ;
-2016 : trois jours de deuil national furent décrétés à la suite de la mort de Fidel Castro[96] ;</t>
+2013 : trois jours de deuil national furent décrétés à la suite de la mort de Nelson Mandela ;
+2016 : trois jours de deuil national furent décrétés à la suite de la mort de Fidel Castro ;</t>
         </is>
       </c>
     </row>
